--- a/files/XLS/nosso.xlsx
+++ b/files/XLS/nosso.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -138,7 +138,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -153,7 +153,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>4299933718</v>
+        <v>4299234180</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>1</v>
@@ -167,7 +167,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>4299813593</v>
+        <v>4299234180</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>4</v>
